--- a/VersionRecords/Version 5.0.3.2 20161013/配置文件/FX01.域名变更配置文件.xlsx
+++ b/VersionRecords/Version 5.0.3.2 20161013/配置文件/FX01.域名变更配置文件.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.3.2 20161013\配置文件\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="（开发）配置文件修改" sheetId="5" r:id="rId1"/>
@@ -130,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -404,6 +399,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -423,7 +486,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -743,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="13" customWidth="1"/>
@@ -1586,7 +1649,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1666,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1618,7 +1681,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="33">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1700,7 +1763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1715,7 +1778,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1730,7 +1793,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1745,7 +1808,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1760,7 +1823,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1775,7 +1838,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1790,7 +1853,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1805,7 +1868,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1838,14 +1901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="13" customWidth="1"/>
@@ -2681,7 +2744,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -2698,7 +2761,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -2713,7 +2776,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2754,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="33">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2795,7 +2858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2810,7 +2873,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2825,7 +2888,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2840,7 +2903,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2855,7 +2918,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2870,7 +2933,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2885,7 +2948,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2900,7 +2963,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2933,14 +2996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="13" customWidth="1"/>
@@ -3776,7 +3839,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -3793,7 +3856,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -3808,7 +3871,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3849,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="33">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -3890,7 +3953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3905,7 +3968,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3920,7 +3983,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3935,7 +3998,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3950,7 +4013,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3965,7 +4028,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3980,7 +4043,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3995,7 +4058,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -4028,14 +4091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="13" customWidth="1"/>
@@ -4871,7 +4934,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
@@ -4888,7 +4951,7 @@
       <c r="L1" s="16"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -4903,7 +4966,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4944,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="8" customFormat="1" ht="33">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4985,7 +5048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5000,7 +5063,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5015,7 +5078,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5030,7 +5093,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5045,7 +5108,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5060,7 +5123,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5075,7 +5138,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5090,7 +5153,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
